--- a/resultados_modelagem_mlpr.xlsx
+++ b/resultados_modelagem_mlpr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Melhor_Filtro</t>
+          <t>Filtro</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -466,7 +466,12 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Val_MAE</t>
+          <t>Melhores_Params</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Tempo_s</t>
         </is>
       </c>
     </row>
@@ -483,28 +488,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>OPLS2_SNV_SG_D1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.2846 ± 0.1923</t>
-        </is>
+          <t>Detrend</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6673969644030194</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1918</v>
+        <v>0.4523838076478391</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5923</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.355</v>
+        <v>0.4875178012944068</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.01, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>638.6785559654236</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FIRMEZA (N)</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,28 +522,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>OSC_1</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-34.8950 ± 11.3914</t>
-        </is>
+          <t>SG_D1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6513796514641595</v>
       </c>
       <c r="E3" t="n">
-        <v>-27.249</v>
+        <v>0.4502499004470933</v>
       </c>
       <c r="F3" t="n">
-        <v>517.9385</v>
-      </c>
-      <c r="G3" t="n">
-        <v>508.6885</v>
+        <v>0.488466738044378</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.001, 'early_stopping': True, 'hidden_layer_sizes': (20, 10), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>935.3474545478821</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PH</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -545,28 +556,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OSC_1</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-7.6186 ± 3.4949</t>
-        </is>
+          <t>Raw</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4885052724691477</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.7825</v>
+        <v>0.4360565205429922</v>
       </c>
       <c r="F4" t="n">
-        <v>0.678</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6261</v>
+        <v>0.4947321427236095</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (20,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>694.9950292110443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SST</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -576,53 +590,2609 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>OSC_2</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-22.0527 ± 4.8069</t>
-        </is>
+          <t>Wavelet_Denoising</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5091508515313631</v>
       </c>
       <c r="E5" t="n">
-        <v>-19.2532</v>
+        <v>0.4247576760330586</v>
       </c>
       <c r="F5" t="n">
-        <v>11.1047</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.827</v>
+        <v>0.4996636471855221</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (20,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>568.9852757453918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>OSC_1</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6475235275753575</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4200861933077896</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5016884028896226</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>542.8484590053558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>OSC_2</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6475235275753575</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.4200861933077896</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.5016884028896226</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>543.7691504955292</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>MSC_SG_OSC</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6475235275753575</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.4200861933077896</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5016884028896226</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>543.5160858631134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>OPLS1_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6475235275753575</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.4200861933077896</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.5016884028896226</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>544.0031845569611</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>OPLS2_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6475235275753575</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.4200861933077896</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.5016884028896226</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>540.9640624523163</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>SNV_Detrend_SG_D1</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6475235275753575</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4200861933077896</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.5016884028896226</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>544.113600730896</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5843585312008523</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4099026359073465</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.5060741740155641</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>589.8017768859863</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Normalize</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4542663880857725</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.2797146751634727</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.559119476527704</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (20, 15, 10), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>530.1426165103912</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SG_D2</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.4696097246500726</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.2296337784095607</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.578230443874397</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (8,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>957.2846806049347</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Continuum_Removal</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.03669100758193511</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.04774048435050071</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.6743404326256335</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.001, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>338.1696648597717</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>EMSC</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.006906105199216861</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.06520213385967577</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.6799364939204259</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (20, 10), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>311.8870782852173</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AT</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-0.008541469916473244</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-0.07665976447050871</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.68358351251258</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.01, 'early_stopping': True, 'hidden_layer_sizes': (32, 16), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>791.5635581016541</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-0.3397895703305854</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.2334714162705882</v>
+      </c>
+      <c r="F18" t="n">
+        <v>85.3180814909221</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1306.856045007706</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>SG_D2</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-0.559790041621898</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.2313076442214782</v>
+      </c>
+      <c r="F19" t="n">
+        <v>85.43841541459034</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2337.693248510361</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-0.07352868980479718</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.3262639739876017</v>
+      </c>
+      <c r="F20" t="n">
+        <v>112.225588216027</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2312.359681367874</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>SG_D1</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.8725509924398072</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-0.529904598203673</v>
+      </c>
+      <c r="F21" t="n">
+        <v>120.5338639460944</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.01, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2269.422142505646</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Normalize</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-0.6809552785614292</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-0.5984650504183491</v>
+      </c>
+      <c r="F22" t="n">
+        <v>123.2050406983446</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.001, 'early_stopping': True, 'hidden_layer_sizes': (32,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2376.2210085392</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Detrend</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>-3.731062165935351</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-3.372823413977466</v>
+      </c>
+      <c r="F23" t="n">
+        <v>203.7782713716073</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.001, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1683.11231637001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>OSC_1</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>-5.258950766004006</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-8.572651233879954</v>
+      </c>
+      <c r="F24" t="n">
+        <v>301.503961049634</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1805.085022211075</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>OSC_2</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>-5.258950766004006</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-8.572651233879954</v>
+      </c>
+      <c r="F25" t="n">
+        <v>301.503961049634</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1815.218317270279</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MSC_SG_OSC</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>-5.258950766004006</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-8.572651233879954</v>
+      </c>
+      <c r="F26" t="n">
+        <v>301.503961049634</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1823.027965545654</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>OPLS1_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>-5.258950766004006</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-8.572651233879954</v>
+      </c>
+      <c r="F27" t="n">
+        <v>301.503961049634</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1810.499584436417</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>OPLS2_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>-5.258950766004006</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-8.572651233879954</v>
+      </c>
+      <c r="F28" t="n">
+        <v>301.503961049634</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1817.103085517883</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SNV_Detrend_SG_D1</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>-5.258950766004006</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-8.572651233879954</v>
+      </c>
+      <c r="F29" t="n">
+        <v>301.503961049634</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1808.646550655365</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Raw</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>-3.191957545355547</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-11.23446470108723</v>
+      </c>
+      <c r="F30" t="n">
+        <v>340.8547810729174</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1604.839487552643</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Wavelet_Denoising</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>-3.174119983970035</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-11.23484418194212</v>
+      </c>
+      <c r="F31" t="n">
+        <v>340.8600672404729</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1972.777218580246</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>EMSC</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>-26.35821959709138</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-24.50177900362793</v>
+      </c>
+      <c r="F32" t="n">
+        <v>492.1099463238377</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>720.2165031433105</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FIRMEZA (N)</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Continuum_Removal</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>-22.00331375774835</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-39.90310148118171</v>
+      </c>
+      <c r="F33" t="n">
+        <v>623.239576527854</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (32, 16), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1925.543029546738</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.4272873624208583</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.6725833642712564</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.1489703028822167</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (32, 16), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>943.9445304870605</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>OSC_1</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0.4434088762210882</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6531901863461702</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.1533186614506131</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>972.6165444850922</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>OSC_2</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0.4434088762210882</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.6531901863461702</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.1533186614506131</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>967.44504737854</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MSC_SG_OSC</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0.4434088762210882</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.6531901863461702</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.1533186614506131</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>968.497227191925</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>OPLS1_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0.4434088762210882</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.6531901863461702</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.1533186614506131</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>972.2304315567017</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>OPLS2_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0.4434088762210882</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.6531901863461702</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.1533186614506131</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>968.4948515892029</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SNV_Detrend_SG_D1</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0.4434088762210882</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.6531901863461702</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.1533186614506131</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>967.7137954235077</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Detrend</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0.4357105957027782</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.643987038027678</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.1553396188032571</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1240.400729179382</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SG_D1</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5439398193014757</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.5327189899150402</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.1779665559297608</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>{'activation': 'tanh', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (20, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2316.140879392624</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SG_D2</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0.4382094932688246</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.390602589396522</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.2032355289572772</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.01, 'early_stopping': True, 'hidden_layer_sizes': (20, 10), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2180.110231876373</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Wavelet_Denoising</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0.2805808855739006</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.3761431427393054</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.205632524105554</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1130.714283943176</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Raw</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0.2910677165816508</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.3684445894643124</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.206897412794335</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1123.380370855331</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Continuum_Removal</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.0690770898276379</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.003769688807980565</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.2598538798405507</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.01, 'early_stopping': True, 'hidden_layer_sizes': (20, 15, 10), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>905.6069192886353</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Normalize</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0.3002861881613715</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.005464626343723245</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.261055428143042</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (50, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1082.667378425598</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>EMSC</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.181567962130026</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-0.009125133728070223</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.261530197289009</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>453.9054684638977</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.03361966711540476</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.03876448819785461</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.2653431478359345</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'activation': 'tanh', 'alpha': 0.01, 'early_stopping': True, 'hidden_layer_sizes': (20, 20), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1605.70175909996</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SG_D1</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5651010111979384</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.6575292488673501</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.444010561627205</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (32,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2578.388895273209</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SG_D2</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5846421533741409</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.5362353678969538</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.680379749436692</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (16, 8), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2652.656317472458</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Raw</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0.4941261909354867</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.5348187060567682</v>
+      </c>
+      <c r="F52" t="n">
+        <v>1.682944320475075</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1516.745952129364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>OSC_1</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5021497311185165</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.5343417894946796</v>
+      </c>
+      <c r="F53" t="n">
+        <v>1.683806799703418</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1349.896570205688</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>OSC_2</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5021497311185165</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.5343417894946796</v>
+      </c>
+      <c r="F54" t="n">
+        <v>1.683806799703418</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1349.476642847061</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>MSC_SG_OSC</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5021497311185165</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.5343417894946796</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.683806799703418</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1338.56366610527</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>OPLS1_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5021497311185165</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.5343417894946796</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.683806799703418</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1344.400713205338</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>OPLS2_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5021497311185165</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.5343417894946796</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.683806799703418</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1347.095923185349</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SNV_Detrend_SG_D1</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0.5021497311185165</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.5343417894946796</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.683806799703418</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1347.43211722374</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Wavelet_Denoising</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0.4931696622875733</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.5276629184890322</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.695839112334106</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1476.245463132858</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0.47229684683878</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.5236627289457125</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.703004943712264</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1202.345648288727</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Detrend</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0.5262288341608317</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.5111871063022162</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.725162276734359</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1440.646740436554</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Normalize</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0.2462836848790944</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.326738038210136</v>
+      </c>
+      <c r="F62" t="n">
+        <v>2.024653299996949</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>{'activation': 'tanh', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1995.741722106934</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>-0.03285014282701475</v>
+      </c>
+      <c r="E63" t="n">
+        <v>-0.01044246320922038</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.480358298105825</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (32, 16), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2444.137219190598</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>EMSC</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>-0.1633228378655096</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.02583749087706066</v>
+      </c>
+      <c r="F64" t="n">
+        <v>2.499182148501271</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>682.7614398002625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>SST</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Continuum_Removal</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>-0.05735191192020126</v>
+      </c>
+      <c r="E65" t="n">
+        <v>-0.06969727364175382</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.552049366248451</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1460.628222227097</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>UBS (%)</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>MLPR</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SG_D1</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5215146940327207</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.671257613870945</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.504714389770144</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (32,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2618.875155925751</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SG_D2</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0.6531261696565853</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.6137462267854661</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.631032407045284</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2703.672590494156</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>OSC_1</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0.4550802231393766</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.5447407806568655</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.770743259661494</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1239.150777578354</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>OSC_2</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>-24.0116 ± 6.9041</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>-20.6191</v>
-      </c>
-      <c r="F6" t="n">
-        <v>12.2024</v>
-      </c>
-      <c r="G6" t="n">
-        <v>11.9168</v>
+      <c r="D69" t="n">
+        <v>0.4550802231393766</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.5447407806568655</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.770743259661494</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1233.077896595001</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MSC_SG_OSC</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0.4550802231393766</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.5447407806568655</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.770743259661494</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1238.098054885864</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>OPLS1_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>0.4550802231393766</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.5447407806568655</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.770743259661494</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1237.912989139557</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>OPLS2_SNV_SG_D1</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>0.4550802231393766</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.5447407806568655</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.770743259661494</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1238.014719963074</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SNV_Detrend_SG_D1</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>0.4550802231393766</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.5447407806568655</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.770743259661494</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1240.04269361496</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Detrend</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>0.4739775292752918</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.5429586505004358</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.774205696648103</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1420.619056940079</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Raw</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>0.4576392101698816</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.5236038459645895</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.811383243995491</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1477.312041044235</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Wavelet_Denoising</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>0.4546027729464221</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.5127679657572592</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.831867846306186</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1432.938266992569</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>SNV</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>0.4467592375141455</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.493078774637925</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.86851444948202</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1169.082725763321</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Normalize</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>0.2617136424825652</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.3885726512099613</v>
+      </c>
+      <c r="F78" t="n">
+        <v>2.052100626394886</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>{'activation': 'tanh', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (25,), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2031.277392625809</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>EMSC</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.07871495299556819</v>
+      </c>
+      <c r="E79" t="n">
+        <v>-0.001344757702593347</v>
+      </c>
+      <c r="F79" t="n">
+        <v>2.626140980976675</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>687.3684639930725</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>MSC</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.04755187981620664</v>
+      </c>
+      <c r="E80" t="n">
+        <v>-0.02173753130044576</v>
+      </c>
+      <c r="F80" t="n">
+        <v>2.652747390084083</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>{'activation': 'relu', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (32, 16), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>2509.639431476593</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>UBS (%)</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>MLPR</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Continuum_Removal</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.03303873514084084</v>
+      </c>
+      <c r="E81" t="n">
+        <v>-0.03195646768568294</v>
+      </c>
+      <c r="F81" t="n">
+        <v>2.665980148915585</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1545.613372802734</v>
       </c>
     </row>
   </sheetData>

--- a/resultados_modelagem_mlpr.xlsx
+++ b/resultados_modelagem_mlpr.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6673969644030194</v>
+        <v>0.6673969644030211</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4523838076478391</v>
+        <v>0.4523838076478393</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4875178012944068</v>
+        <v>0.4875178012944067</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>638.6785559654236</v>
+        <v>225.0734362602234</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         <v>0.6513796514641595</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4502499004470933</v>
+        <v>0.4502499004470931</v>
       </c>
       <c r="F3" t="n">
-        <v>0.488466738044378</v>
+        <v>0.4884667380443781</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,7 +540,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>935.3474545478821</v>
+        <v>258.6090707778931</v>
       </c>
     </row>
     <row r="4">
@@ -560,13 +560,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4885052724691477</v>
+        <v>0.488505272469148</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4360565205429922</v>
+        <v>0.4360565205429916</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4947321427236095</v>
+        <v>0.4947321427236097</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>694.9950292110443</v>
+        <v>200.5853896141052</v>
       </c>
     </row>
     <row r="5">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5091508515313631</v>
+        <v>0.5091508515313636</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4247576760330586</v>
+        <v>0.4247576760330589</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4996636471855221</v>
+        <v>0.499663647185522</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>568.9852757453918</v>
+        <v>198.6038906574249</v>
       </c>
     </row>
     <row r="6">
@@ -628,13 +628,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6475235275753575</v>
+        <v>0.6475235275753553</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4200861933077896</v>
+        <v>0.4200861933077902</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5016884028896226</v>
+        <v>0.5016884028896222</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>542.8484590053558</v>
+        <v>239.9970595836639</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6475235275753575</v>
+        <v>0.6475235275753553</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4200861933077896</v>
+        <v>0.4200861933077902</v>
       </c>
       <c r="F7" t="n">
-        <v>0.5016884028896226</v>
+        <v>0.5016884028896222</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>543.7691504955292</v>
+        <v>234.7957513332367</v>
       </c>
     </row>
     <row r="8">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.6475235275753575</v>
+        <v>0.6475235275753553</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4200861933077896</v>
+        <v>0.4200861933077902</v>
       </c>
       <c r="F8" t="n">
-        <v>0.5016884028896226</v>
+        <v>0.5016884028896222</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>543.5160858631134</v>
+        <v>238.8699254989624</v>
       </c>
     </row>
     <row r="9">
@@ -730,13 +730,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.6475235275753575</v>
+        <v>0.6475235275753553</v>
       </c>
       <c r="E9" t="n">
-        <v>0.4200861933077896</v>
+        <v>0.4200861933077902</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5016884028896226</v>
+        <v>0.5016884028896222</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>544.0031845569611</v>
+        <v>238.579000711441</v>
       </c>
     </row>
     <row r="10">
@@ -764,13 +764,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.6475235275753575</v>
+        <v>0.6475235275753553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4200861933077896</v>
+        <v>0.4200861933077902</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5016884028896226</v>
+        <v>0.5016884028896222</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -778,7 +778,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>540.9640624523163</v>
+        <v>238.7128102779388</v>
       </c>
     </row>
     <row r="11">
@@ -798,13 +798,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6475235275753575</v>
+        <v>0.6475235275753553</v>
       </c>
       <c r="E11" t="n">
-        <v>0.4200861933077896</v>
+        <v>0.4200861933077902</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5016884028896226</v>
+        <v>0.5016884028896222</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>544.113600730896</v>
+        <v>234.7542841434479</v>
       </c>
     </row>
     <row r="12">
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.5843585312008523</v>
+        <v>0.5843585312008521</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4099026359073465</v>
+        <v>0.4099026359073467</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5060741740155641</v>
+        <v>0.506074174015564</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>589.8017768859863</v>
+        <v>239.668244600296</v>
       </c>
     </row>
     <row r="13">
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.4542663880857725</v>
+        <v>0.4542663872457625</v>
       </c>
       <c r="E13" t="n">
-        <v>0.2797146751634727</v>
+        <v>0.279714675163941</v>
       </c>
       <c r="F13" t="n">
-        <v>0.559119476527704</v>
+        <v>0.5591194765275223</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>530.1426165103912</v>
+        <v>169.8303778171539</v>
       </c>
     </row>
     <row r="14">
@@ -900,7 +900,7 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0.4696097246500726</v>
+        <v>0.4696097246500731</v>
       </c>
       <c r="E14" t="n">
         <v>0.2296337784095607</v>
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>957.2846806049347</v>
+        <v>251.0152430534363</v>
       </c>
     </row>
     <row r="15">
@@ -934,13 +934,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.03669100758193511</v>
+        <v>0.03669100758193349</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.04774048435050071</v>
+        <v>-0.04774048435050537</v>
       </c>
       <c r="F15" t="n">
-        <v>0.6743404326256335</v>
+        <v>0.6743404326256349</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>338.1696648597717</v>
+        <v>97.71799802780151</v>
       </c>
     </row>
     <row r="16">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.006906105199216861</v>
+        <v>0.006906105199216817</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.06520213385967577</v>
+        <v>-0.06520213385967599</v>
       </c>
       <c r="F16" t="n">
         <v>0.6799364939204259</v>
@@ -982,7 +982,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>311.8870782852173</v>
+        <v>90.68193817138672</v>
       </c>
     </row>
     <row r="17">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-0.008541469916473244</v>
+        <v>-0.008541469916473332</v>
       </c>
       <c r="E17" t="n">
         <v>-0.07665976447050871</v>
@@ -1016,7 +1016,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>791.5635581016541</v>
+        <v>200.4048800468445</v>
       </c>
     </row>
     <row r="18">
@@ -1036,13 +1036,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-0.3397895703305854</v>
+        <v>-0.3397895703305855</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2334714162705882</v>
+        <v>0.2334714162705883</v>
       </c>
       <c r="F18" t="n">
-        <v>85.3180814909221</v>
+        <v>85.31808149092208</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1306.856045007706</v>
+        <v>434.4397296905518</v>
       </c>
     </row>
     <row r="19">
@@ -1070,13 +1070,13 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-0.559790041621898</v>
+        <v>-0.5597900416218993</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2313076442214782</v>
+        <v>0.2313076442214763</v>
       </c>
       <c r="F19" t="n">
-        <v>85.43841541459034</v>
+        <v>85.43841541459044</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2337.693248510361</v>
+        <v>838.184711933136</v>
       </c>
     </row>
     <row r="20">
@@ -1104,13 +1104,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>-0.07352868980479718</v>
+        <v>-0.07352868980479728</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.3262639739876017</v>
+        <v>-0.3262639739898479</v>
       </c>
       <c r="F20" t="n">
-        <v>112.225588216027</v>
+        <v>112.225588216122</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2312.359681367874</v>
+        <v>821.4216713905334</v>
       </c>
     </row>
     <row r="21">
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>-0.8725509924398072</v>
+        <v>-0.8725509924398066</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.529904598203673</v>
+        <v>-0.5299045982036732</v>
       </c>
       <c r="F21" t="n">
         <v>120.5338639460944</v>
@@ -1152,7 +1152,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>2269.422142505646</v>
+        <v>816.7869963645935</v>
       </c>
     </row>
     <row r="22">
@@ -1186,7 +1186,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>2376.2210085392</v>
+        <v>527.2492341995239</v>
       </c>
     </row>
     <row r="23">
@@ -1209,10 +1209,10 @@
         <v>-3.731062165935351</v>
       </c>
       <c r="E23" t="n">
-        <v>-3.372823413977466</v>
+        <v>-3.372823413977468</v>
       </c>
       <c r="F23" t="n">
-        <v>203.7782713716073</v>
+        <v>203.7782713716074</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1683.11231637001</v>
+        <v>408.466059923172</v>
       </c>
     </row>
     <row r="24">
@@ -1243,10 +1243,10 @@
         <v>-5.258950766004006</v>
       </c>
       <c r="E24" t="n">
-        <v>-8.572651233879954</v>
+        <v>-8.572651233879958</v>
       </c>
       <c r="F24" t="n">
-        <v>301.503961049634</v>
+        <v>301.5039610496341</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1805.085022211075</v>
+        <v>413.5315823554993</v>
       </c>
     </row>
     <row r="25">
@@ -1277,10 +1277,10 @@
         <v>-5.258950766004006</v>
       </c>
       <c r="E25" t="n">
-        <v>-8.572651233879954</v>
+        <v>-8.572651233879958</v>
       </c>
       <c r="F25" t="n">
-        <v>301.503961049634</v>
+        <v>301.5039610496341</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1815.218317270279</v>
+        <v>405.6408483982086</v>
       </c>
     </row>
     <row r="26">
@@ -1311,10 +1311,10 @@
         <v>-5.258950766004006</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.572651233879954</v>
+        <v>-8.572651233879958</v>
       </c>
       <c r="F26" t="n">
-        <v>301.503961049634</v>
+        <v>301.5039610496341</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1823.027965545654</v>
+        <v>399.4647588729858</v>
       </c>
     </row>
     <row r="27">
@@ -1345,10 +1345,10 @@
         <v>-5.258950766004006</v>
       </c>
       <c r="E27" t="n">
-        <v>-8.572651233879954</v>
+        <v>-8.572651233879958</v>
       </c>
       <c r="F27" t="n">
-        <v>301.503961049634</v>
+        <v>301.5039610496341</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1810.499584436417</v>
+        <v>402.4315805435181</v>
       </c>
     </row>
     <row r="28">
@@ -1379,10 +1379,10 @@
         <v>-5.258950766004006</v>
       </c>
       <c r="E28" t="n">
-        <v>-8.572651233879954</v>
+        <v>-8.572651233879958</v>
       </c>
       <c r="F28" t="n">
-        <v>301.503961049634</v>
+        <v>301.5039610496341</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1817.103085517883</v>
+        <v>409.6005840301514</v>
       </c>
     </row>
     <row r="29">
@@ -1413,10 +1413,10 @@
         <v>-5.258950766004006</v>
       </c>
       <c r="E29" t="n">
-        <v>-8.572651233879954</v>
+        <v>-8.572651233879958</v>
       </c>
       <c r="F29" t="n">
-        <v>301.503961049634</v>
+        <v>301.5039610496341</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1808.646550655365</v>
+        <v>405.5731711387634</v>
       </c>
     </row>
     <row r="30">
@@ -1458,7 +1458,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1604.839487552643</v>
+        <v>404.0588071346283</v>
       </c>
     </row>
     <row r="31">
@@ -1478,7 +1478,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>-3.174119983970035</v>
+        <v>-3.174119983970036</v>
       </c>
       <c r="E31" t="n">
         <v>-11.23484418194212</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1972.777218580246</v>
+        <v>431.5983920097351</v>
       </c>
     </row>
     <row r="32">
@@ -1515,10 +1515,10 @@
         <v>-26.35821959709138</v>
       </c>
       <c r="E32" t="n">
-        <v>-24.50177900362793</v>
+        <v>-24.50177583507983</v>
       </c>
       <c r="F32" t="n">
-        <v>492.1099463238377</v>
+        <v>492.1099157519689</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>720.2165031433105</v>
+        <v>402.9729208946228</v>
       </c>
     </row>
     <row r="33">
@@ -1546,13 +1546,13 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-22.00331375774835</v>
+        <v>-22.00331375774834</v>
       </c>
       <c r="E33" t="n">
-        <v>-39.90310148118171</v>
+        <v>-39.90310148118169</v>
       </c>
       <c r="F33" t="n">
-        <v>623.239576527854</v>
+        <v>623.2395765278538</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1925.543029546738</v>
+        <v>418.2821152210236</v>
       </c>
     </row>
     <row r="34">
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.4272873624208583</v>
+        <v>0.4272873626407693</v>
       </c>
       <c r="E34" t="n">
-        <v>0.6725833642712564</v>
+        <v>0.6725833642712566</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1489703028822167</v>
+        <v>0.1489703028822166</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1594,7 +1594,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>943.9445304870605</v>
+        <v>311.909196138382</v>
       </c>
     </row>
     <row r="35">
@@ -1614,13 +1614,13 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.4434088762210882</v>
+        <v>0.4434124758954838</v>
       </c>
       <c r="E35" t="n">
-        <v>0.6531901863461702</v>
+        <v>0.6531901863461793</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1533186614506131</v>
+        <v>0.1533186614506111</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>972.6165444850922</v>
+        <v>226.8959245681763</v>
       </c>
     </row>
     <row r="36">
@@ -1648,13 +1648,13 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.4434088762210882</v>
+        <v>0.4434124758954838</v>
       </c>
       <c r="E36" t="n">
-        <v>0.6531901863461702</v>
+        <v>0.6531901863461793</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1533186614506131</v>
+        <v>0.1533186614506111</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>967.44504737854</v>
+        <v>210.3692183494568</v>
       </c>
     </row>
     <row r="37">
@@ -1682,13 +1682,13 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.4434088762210882</v>
+        <v>0.4434124758954838</v>
       </c>
       <c r="E37" t="n">
-        <v>0.6531901863461702</v>
+        <v>0.6531901863461793</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1533186614506131</v>
+        <v>0.1533186614506111</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>968.497227191925</v>
+        <v>218.9206247329712</v>
       </c>
     </row>
     <row r="38">
@@ -1716,13 +1716,13 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.4434088762210882</v>
+        <v>0.4434124758954838</v>
       </c>
       <c r="E38" t="n">
-        <v>0.6531901863461702</v>
+        <v>0.6531901863461793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1533186614506131</v>
+        <v>0.1533186614506111</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1730,7 +1730,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>972.2304315567017</v>
+        <v>211.6031286716461</v>
       </c>
     </row>
     <row r="39">
@@ -1750,13 +1750,13 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.4434088762210882</v>
+        <v>0.4434124758954838</v>
       </c>
       <c r="E39" t="n">
-        <v>0.6531901863461702</v>
+        <v>0.6531901863461793</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1533186614506131</v>
+        <v>0.1533186614506111</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>968.4948515892029</v>
+        <v>210.8000864982605</v>
       </c>
     </row>
     <row r="40">
@@ -1784,13 +1784,13 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.4434088762210882</v>
+        <v>0.4434124758954838</v>
       </c>
       <c r="E40" t="n">
-        <v>0.6531901863461702</v>
+        <v>0.6531901863461793</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1533186614506131</v>
+        <v>0.1533186614506111</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1798,7 +1798,7 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>967.7137954235077</v>
+        <v>208.747287273407</v>
       </c>
     </row>
     <row r="41">
@@ -1818,13 +1818,13 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.4357105957027782</v>
+        <v>0.4357105957027786</v>
       </c>
       <c r="E41" t="n">
-        <v>0.643987038027678</v>
+        <v>0.6439870380276778</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1553396188032571</v>
+        <v>0.1553396188032572</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1240.400729179382</v>
+        <v>280.2030620574951</v>
       </c>
     </row>
     <row r="42">
@@ -1855,10 +1855,10 @@
         <v>0.5439398193014757</v>
       </c>
       <c r="E42" t="n">
-        <v>0.5327189899150402</v>
+        <v>0.5327189899150405</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1779665559297608</v>
+        <v>0.1779665559297607</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2316.140879392624</v>
+        <v>517.5433242321014</v>
       </c>
     </row>
     <row r="43">
@@ -1886,13 +1886,13 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.4382094932688246</v>
+        <v>0.4382094932688247</v>
       </c>
       <c r="E43" t="n">
-        <v>0.390602589396522</v>
+        <v>0.3906025893965217</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2032355289572772</v>
+        <v>0.2032355289572773</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1900,7 +1900,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2180.110231876373</v>
+        <v>498.9683623313904</v>
       </c>
     </row>
     <row r="44">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.2805808855739006</v>
+        <v>0.2805808854274091</v>
       </c>
       <c r="E44" t="n">
-        <v>0.3761431427393054</v>
+        <v>0.3761431427393057</v>
       </c>
       <c r="F44" t="n">
         <v>0.205632524105554</v>
@@ -1934,7 +1934,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1130.714283943176</v>
+        <v>377.9403204917908</v>
       </c>
     </row>
     <row r="45">
@@ -1954,10 +1954,10 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0.2910677165816508</v>
+        <v>0.2910677184092534</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3684445894643124</v>
+        <v>0.3684445894643128</v>
       </c>
       <c r="F45" t="n">
         <v>0.206897412794335</v>
@@ -1968,7 +1968,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1123.380370855331</v>
+        <v>364.6322190761566</v>
       </c>
     </row>
     <row r="46">
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>-0.0690770898276379</v>
+        <v>-0.06992769301268875</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003769688807980565</v>
+        <v>0.003769677652897485</v>
       </c>
       <c r="F46" t="n">
-        <v>0.2598538798405507</v>
+        <v>0.2598538812953807</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>905.6069192886353</v>
+        <v>233.6231241226196</v>
       </c>
     </row>
     <row r="47">
@@ -2025,10 +2025,10 @@
         <v>0.3002861881613715</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.005464626343723245</v>
+        <v>-0.005464626343723689</v>
       </c>
       <c r="F47" t="n">
-        <v>0.261055428143042</v>
+        <v>0.2610554281430421</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1082.667378425598</v>
+        <v>337.3057916164398</v>
       </c>
     </row>
     <row r="48">
@@ -2056,7 +2056,7 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-0.181567962130026</v>
+        <v>-0.1815679621300258</v>
       </c>
       <c r="E48" t="n">
         <v>-0.009125133728070223</v>
@@ -2070,7 +2070,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>453.9054684638977</v>
+        <v>162.6261911392212</v>
       </c>
     </row>
     <row r="49">
@@ -2090,10 +2090,10 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>-0.03361966711540476</v>
+        <v>-0.03361966711540534</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.03876448819785461</v>
+        <v>-0.03876448819785416</v>
       </c>
       <c r="F49" t="n">
         <v>0.2653431478359345</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1605.70175909996</v>
+        <v>381.7964446544647</v>
       </c>
     </row>
     <row r="50">
@@ -2124,13 +2124,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0.5651010111979384</v>
+        <v>0.5651010109181084</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6575292488673501</v>
+        <v>0.6575292485421192</v>
       </c>
       <c r="F50" t="n">
-        <v>1.444010561627205</v>
+        <v>1.444010562312865</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2138,7 +2138,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2578.388895273209</v>
+        <v>751.1961829662323</v>
       </c>
     </row>
     <row r="51">
@@ -2161,10 +2161,10 @@
         <v>0.5846421533741409</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5362353678969538</v>
+        <v>0.5362353678969537</v>
       </c>
       <c r="F51" t="n">
-        <v>1.680379749436692</v>
+        <v>1.680379749436693</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2652.656317472458</v>
+        <v>564.5577003955841</v>
       </c>
     </row>
     <row r="52">
@@ -2192,13 +2192,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0.4941261909354867</v>
+        <v>0.494126190909966</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5348187060567682</v>
+        <v>0.5348187047684321</v>
       </c>
       <c r="F52" t="n">
-        <v>1.682944320475075</v>
+        <v>1.682944322805562</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1516.745952129364</v>
+        <v>557.1317224502563</v>
       </c>
     </row>
     <row r="53">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0.5021497311185165</v>
+        <v>0.502149731118537</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5343417894946796</v>
+        <v>0.5343417894946794</v>
       </c>
       <c r="F53" t="n">
         <v>1.683806799703418</v>
@@ -2240,7 +2240,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1349.896570205688</v>
+        <v>536.7118875980377</v>
       </c>
     </row>
     <row r="54">
@@ -2260,10 +2260,10 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0.5021497311185165</v>
+        <v>0.502149731118537</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5343417894946796</v>
+        <v>0.5343417894946794</v>
       </c>
       <c r="F54" t="n">
         <v>1.683806799703418</v>
@@ -2274,7 +2274,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1349.476642847061</v>
+        <v>549.4558320045471</v>
       </c>
     </row>
     <row r="55">
@@ -2294,10 +2294,10 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>0.5021497311185165</v>
+        <v>0.502149731118537</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5343417894946796</v>
+        <v>0.5343417894946794</v>
       </c>
       <c r="F55" t="n">
         <v>1.683806799703418</v>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1338.56366610527</v>
+        <v>509.3970458507538</v>
       </c>
     </row>
     <row r="56">
@@ -2328,10 +2328,10 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0.5021497311185165</v>
+        <v>0.502149731118537</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5343417894946796</v>
+        <v>0.5343417894946794</v>
       </c>
       <c r="F56" t="n">
         <v>1.683806799703418</v>
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1344.400713205338</v>
+        <v>520.1010136604309</v>
       </c>
     </row>
     <row r="57">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0.5021497311185165</v>
+        <v>0.502149731118537</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5343417894946796</v>
+        <v>0.5343417894946794</v>
       </c>
       <c r="F57" t="n">
         <v>1.683806799703418</v>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1347.095923185349</v>
+        <v>526.2088932991028</v>
       </c>
     </row>
     <row r="58">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.5021497311185165</v>
+        <v>0.502149731118537</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5343417894946796</v>
+        <v>0.5343417894946794</v>
       </c>
       <c r="F58" t="n">
         <v>1.683806799703418</v>
@@ -2410,7 +2410,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1347.43211722374</v>
+        <v>531.6092109680176</v>
       </c>
     </row>
     <row r="59">
@@ -2430,13 +2430,13 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0.4931696622875733</v>
+        <v>0.4931696622877807</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5276629184890322</v>
+        <v>0.5259061220116991</v>
       </c>
       <c r="F59" t="n">
-        <v>1.695839112334106</v>
+        <v>1.698989912056345</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1476.245463132858</v>
+        <v>574.7373051643372</v>
       </c>
     </row>
     <row r="60">
@@ -2464,13 +2464,13 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0.47229684683878</v>
+        <v>0.4722968468384939</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5236627289457125</v>
+        <v>0.5236627289456994</v>
       </c>
       <c r="F60" t="n">
-        <v>1.703004943712264</v>
+        <v>1.703004943712288</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1202.345648288727</v>
+        <v>500.0339148044586</v>
       </c>
     </row>
     <row r="61">
@@ -2498,13 +2498,13 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0.5262288341608317</v>
+        <v>0.5262288341608425</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5111871063022162</v>
+        <v>0.5111871063022191</v>
       </c>
       <c r="F61" t="n">
-        <v>1.725162276734359</v>
+        <v>1.725162276734354</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1440.646740436554</v>
+        <v>557.3874654769897</v>
       </c>
     </row>
     <row r="62">
@@ -2532,13 +2532,13 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0.2462836848790944</v>
+        <v>0.2462836848783471</v>
       </c>
       <c r="E62" t="n">
-        <v>0.326738038210136</v>
+        <v>0.3267380382100774</v>
       </c>
       <c r="F62" t="n">
-        <v>2.024653299996949</v>
+        <v>2.024653299997037</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1995.741722106934</v>
+        <v>578.5187947750092</v>
       </c>
     </row>
     <row r="63">
@@ -2580,7 +2580,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>2444.137219190598</v>
+        <v>578.7712199687958</v>
       </c>
     </row>
     <row r="64">
@@ -2596,25 +2596,25 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EMSC</t>
+          <t>Continuum_Removal</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>-0.1633228378655096</v>
+        <v>-0.05504126789705104</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.02583749087706066</v>
+        <v>-0.01660244910294573</v>
       </c>
       <c r="F64" t="n">
-        <v>2.499182148501271</v>
+        <v>2.487907345675946</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>{'activation': 'logistic', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>682.7614398002625</v>
+        <v>555.661679983139</v>
       </c>
     </row>
     <row r="65">
@@ -2630,25 +2630,25 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Continuum_Removal</t>
+          <t>EMSC</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>-0.05735191192020126</v>
+        <v>-0.1633228378654895</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.06969727364175382</v>
+        <v>-0.02583749131658797</v>
       </c>
       <c r="F65" t="n">
-        <v>2.552049366248451</v>
+        <v>2.499182149036667</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>{'activation': 'logistic', 'alpha': 0.1, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
+          <t>{'activation': 'logistic', 'alpha': 0.0001, 'early_stopping': True, 'hidden_layer_sizes': (64, 32), 'max_iter': 1000, 'solver': 'adam'}</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1460.628222227097</v>
+        <v>354.6487355232239</v>
       </c>
     </row>
     <row r="66">
@@ -2668,13 +2668,13 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>0.5215146940327207</v>
+        <v>0.5215146969482276</v>
       </c>
       <c r="E66" t="n">
-        <v>0.671257613870945</v>
+        <v>0.6712576135190302</v>
       </c>
       <c r="F66" t="n">
-        <v>1.504714389770144</v>
+        <v>1.504714390575534</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2618.875155925751</v>
+        <v>754.6643478870392</v>
       </c>
     </row>
     <row r="67">
@@ -2705,7 +2705,7 @@
         <v>0.6531261696565853</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6137462267854661</v>
+        <v>0.6137462267854659</v>
       </c>
       <c r="F67" t="n">
         <v>1.631032407045284</v>
@@ -2716,7 +2716,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2703.672590494156</v>
+        <v>798.31174659729</v>
       </c>
     </row>
     <row r="68">
@@ -2736,13 +2736,13 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0.4550802231393766</v>
+        <v>0.4550802231442828</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5447407806568655</v>
+        <v>0.5447407806569919</v>
       </c>
       <c r="F68" t="n">
-        <v>1.770743259661494</v>
+        <v>1.770743259661247</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
@@ -2750,7 +2750,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1239.150777578354</v>
+        <v>510.1358096599579</v>
       </c>
     </row>
     <row r="69">
@@ -2770,13 +2770,13 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.4550802231393766</v>
+        <v>0.4550802231442828</v>
       </c>
       <c r="E69" t="n">
-        <v>0.5447407806568655</v>
+        <v>0.5447407806569919</v>
       </c>
       <c r="F69" t="n">
-        <v>1.770743259661494</v>
+        <v>1.770743259661247</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
@@ -2784,7 +2784,7 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1233.077896595001</v>
+        <v>503.4977405071259</v>
       </c>
     </row>
     <row r="70">
@@ -2804,13 +2804,13 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0.4550802231393766</v>
+        <v>0.4550802231442828</v>
       </c>
       <c r="E70" t="n">
-        <v>0.5447407806568655</v>
+        <v>0.5447407806569919</v>
       </c>
       <c r="F70" t="n">
-        <v>1.770743259661494</v>
+        <v>1.770743259661247</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1238.098054885864</v>
+        <v>524.5616302490234</v>
       </c>
     </row>
     <row r="71">
@@ -2838,13 +2838,13 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0.4550802231393766</v>
+        <v>0.4550802231442828</v>
       </c>
       <c r="E71" t="n">
-        <v>0.5447407806568655</v>
+        <v>0.5447407806569919</v>
       </c>
       <c r="F71" t="n">
-        <v>1.770743259661494</v>
+        <v>1.770743259661247</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1237.912989139557</v>
+        <v>526.3894662857056</v>
       </c>
     </row>
     <row r="72">
@@ -2872,13 +2872,13 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0.4550802231393766</v>
+        <v>0.4550802231442828</v>
       </c>
       <c r="E72" t="n">
-        <v>0.5447407806568655</v>
+        <v>0.5447407806569919</v>
       </c>
       <c r="F72" t="n">
-        <v>1.770743259661494</v>
+        <v>1.770743259661247</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1238.014719963074</v>
+        <v>525.2442724704742</v>
       </c>
     </row>
     <row r="73">
@@ -2906,13 +2906,13 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0.4550802231393766</v>
+        <v>0.4550802231442828</v>
       </c>
       <c r="E73" t="n">
-        <v>0.5447407806568655</v>
+        <v>0.5447407806569919</v>
       </c>
       <c r="F73" t="n">
-        <v>1.770743259661494</v>
+        <v>1.770743259661247</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1240.04269361496</v>
+        <v>403.6771500110626</v>
       </c>
     </row>
     <row r="74">
@@ -2940,13 +2940,13 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.4739775292752918</v>
+        <v>0.4739775292752785</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5429586505004358</v>
+        <v>0.5429586505004331</v>
       </c>
       <c r="F74" t="n">
-        <v>1.774205696648103</v>
+        <v>1.774205696648108</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1420.619056940079</v>
+        <v>551.2036921977997</v>
       </c>
     </row>
     <row r="75">
@@ -2974,13 +2974,13 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0.4576392101698816</v>
+        <v>0.4576392103479067</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5236038459645895</v>
+        <v>0.5236038460180574</v>
       </c>
       <c r="F75" t="n">
-        <v>1.811383243995491</v>
+        <v>1.811383243893841</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1477.312041044235</v>
+        <v>557.0402092933655</v>
       </c>
     </row>
     <row r="76">
@@ -3008,13 +3008,13 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0.4546027729464221</v>
+        <v>0.4546027727833864</v>
       </c>
       <c r="E76" t="n">
-        <v>0.5127679657572592</v>
+        <v>0.512767957041911</v>
       </c>
       <c r="F76" t="n">
-        <v>1.831867846306186</v>
+        <v>1.831867862689926</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1432.938266992569</v>
+        <v>548.6120235919952</v>
       </c>
     </row>
     <row r="77">
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0.4467592375141455</v>
+        <v>0.4467592375135681</v>
       </c>
       <c r="E77" t="n">
-        <v>0.493078774637925</v>
+        <v>0.4930787746378081</v>
       </c>
       <c r="F77" t="n">
-        <v>1.86851444948202</v>
+        <v>1.868514449482235</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1169.082725763321</v>
+        <v>491.6030678749084</v>
       </c>
     </row>
     <row r="78">
@@ -3076,13 +3076,13 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0.2617136424825652</v>
+        <v>0.2617136426466383</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3885726512099613</v>
+        <v>0.3885726512094828</v>
       </c>
       <c r="F78" t="n">
-        <v>2.052100626394886</v>
+        <v>2.052100626395689</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
@@ -3090,7 +3090,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2031.277392625809</v>
+        <v>667.2079632282257</v>
       </c>
     </row>
     <row r="79">
@@ -3110,13 +3110,13 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>-0.07871495299556819</v>
+        <v>-0.07820528621258944</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.001344757702593347</v>
+        <v>-0.001344752555339612</v>
       </c>
       <c r="F79" t="n">
-        <v>2.626140980976675</v>
+        <v>2.626140974227045</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
@@ -3124,7 +3124,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>687.3684639930725</v>
+        <v>390.4837377071381</v>
       </c>
     </row>
     <row r="80">
@@ -3144,10 +3144,10 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>-0.04755187981620664</v>
+        <v>-0.04755187981620668</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.02173753130044576</v>
+        <v>-0.02173753130044598</v>
       </c>
       <c r="F80" t="n">
         <v>2.652747390084083</v>
@@ -3158,7 +3158,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2509.639431476593</v>
+        <v>626.5562579631805</v>
       </c>
     </row>
     <row r="81">
@@ -3178,13 +3178,13 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>-0.03303873514084084</v>
+        <v>-0.03002412245663673</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.03195646768568294</v>
+        <v>-0.03238232666618979</v>
       </c>
       <c r="F81" t="n">
-        <v>2.665980148915585</v>
+        <v>2.66653017913403</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1545.613372802734</v>
+        <v>480.6736612319946</v>
       </c>
     </row>
   </sheetData>
